--- a/PMP/ProjectManagementExperienceDetails.xlsx
+++ b/PMP/ProjectManagementExperienceDetails.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Kiran\WebDrives\DropBox\Dropbox\Docs\Kiran\Git\PMI\PMI\PMP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kiran\docs\others\DB\Dropbox\Docs\Kiran\Git\PMI\PMI\PMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Bak1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc492489450" localSheetId="0">Sheet1!$C$4</definedName>
-    <definedName name="_Toc492489451" localSheetId="0">Sheet1!$C$5</definedName>
-    <definedName name="_Toc492489452" localSheetId="0">Sheet1!$C$6</definedName>
-    <definedName name="_Toc492489453" localSheetId="0">Sheet1!$C$7</definedName>
-    <definedName name="_Toc492489454" localSheetId="0">Sheet1!$C$8</definedName>
-    <definedName name="_Toc492489455" localSheetId="0">Sheet1!$C$9</definedName>
-    <definedName name="_Toc492489456" localSheetId="0">Sheet1!$C$10</definedName>
+    <definedName name="_Toc492489450" localSheetId="1">'Bak1'!$C$4</definedName>
+    <definedName name="_Toc492489451" localSheetId="1">'Bak1'!$C$5</definedName>
+    <definedName name="_Toc492489452" localSheetId="1">'Bak1'!$C$6</definedName>
+    <definedName name="_Toc492489453" localSheetId="1">'Bak1'!$C$7</definedName>
+    <definedName name="_Toc492489454" localSheetId="1">'Bak1'!$C$8</definedName>
+    <definedName name="_Toc492489455" localSheetId="1">'Bak1'!$C$9</definedName>
+    <definedName name="_Toc492489456" localSheetId="1">'Bak1'!$C$10</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
   <si>
     <t>Project Name</t>
   </si>
@@ -166,7 +167,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -281,74 +282,74 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -636,11 +637,475 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:N13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" customWidth="1"/>
+    <col min="14" max="14" width="92.28515625" style="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="24"/>
+    </row>
+    <row r="4" spans="2:14" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="12">
+        <v>39829</v>
+      </c>
+      <c r="E4" s="12">
+        <v>40024</v>
+      </c>
+      <c r="F4" s="11">
+        <v>7</v>
+      </c>
+      <c r="G4" s="13">
+        <v>7</v>
+      </c>
+      <c r="H4" s="14">
+        <f>SUM(I4:M4)</f>
+        <v>1095</v>
+      </c>
+      <c r="I4" s="15">
+        <v>5</v>
+      </c>
+      <c r="J4" s="15">
+        <v>40</v>
+      </c>
+      <c r="K4" s="15">
+        <v>1050</v>
+      </c>
+      <c r="L4" s="15">
+        <v>0</v>
+      </c>
+      <c r="M4" s="15">
+        <v>0</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B5" s="11">
+        <v>2</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="12">
+        <v>40567</v>
+      </c>
+      <c r="E5" s="12">
+        <v>40715</v>
+      </c>
+      <c r="F5" s="11">
+        <v>5</v>
+      </c>
+      <c r="G5" s="13">
+        <v>5</v>
+      </c>
+      <c r="H5" s="14">
+        <f t="shared" ref="H5:H10" si="0">SUM(I5:M5)</f>
+        <v>755</v>
+      </c>
+      <c r="I5" s="15">
+        <v>10</v>
+      </c>
+      <c r="J5" s="15">
+        <v>25</v>
+      </c>
+      <c r="K5" s="15">
+        <v>700</v>
+      </c>
+      <c r="L5" s="15">
+        <v>5</v>
+      </c>
+      <c r="M5" s="15">
+        <v>15</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="11">
+        <v>3</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="12">
+        <v>40779</v>
+      </c>
+      <c r="E6" s="12">
+        <v>40952</v>
+      </c>
+      <c r="F6" s="11">
+        <v>6</v>
+      </c>
+      <c r="G6" s="13">
+        <v>6</v>
+      </c>
+      <c r="H6" s="14">
+        <f t="shared" si="0"/>
+        <v>995</v>
+      </c>
+      <c r="I6" s="16">
+        <v>0</v>
+      </c>
+      <c r="J6" s="16">
+        <v>150</v>
+      </c>
+      <c r="K6" s="16">
+        <v>800</v>
+      </c>
+      <c r="L6" s="16">
+        <v>20</v>
+      </c>
+      <c r="M6" s="16">
+        <v>25</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B7" s="11">
+        <v>4</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="12">
+        <v>41349</v>
+      </c>
+      <c r="E7" s="12">
+        <v>41443</v>
+      </c>
+      <c r="F7" s="11">
+        <v>3</v>
+      </c>
+      <c r="G7" s="13">
+        <v>2</v>
+      </c>
+      <c r="H7" s="14">
+        <f t="shared" si="0"/>
+        <v>710</v>
+      </c>
+      <c r="I7" s="15">
+        <v>10</v>
+      </c>
+      <c r="J7" s="15">
+        <v>75</v>
+      </c>
+      <c r="K7" s="15">
+        <v>600</v>
+      </c>
+      <c r="L7" s="15">
+        <v>15</v>
+      </c>
+      <c r="M7" s="15">
+        <v>10</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" s="10" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="11">
+        <v>5</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="12">
+        <v>41414</v>
+      </c>
+      <c r="E8" s="12">
+        <v>41687</v>
+      </c>
+      <c r="F8" s="11">
+        <v>9</v>
+      </c>
+      <c r="G8" s="13">
+        <v>9</v>
+      </c>
+      <c r="H8" s="14">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+      <c r="I8" s="15">
+        <v>25</v>
+      </c>
+      <c r="J8" s="15">
+        <v>50</v>
+      </c>
+      <c r="K8" s="15">
+        <v>100</v>
+      </c>
+      <c r="L8" s="15">
+        <v>130</v>
+      </c>
+      <c r="M8" s="15">
+        <v>15</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B9" s="11">
+        <v>6</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="12">
+        <v>41639</v>
+      </c>
+      <c r="E9" s="12">
+        <v>41883</v>
+      </c>
+      <c r="F9" s="11">
+        <v>8</v>
+      </c>
+      <c r="G9" s="13">
+        <v>6</v>
+      </c>
+      <c r="H9" s="14">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+      <c r="I9" s="15">
+        <v>15</v>
+      </c>
+      <c r="J9" s="15">
+        <v>50</v>
+      </c>
+      <c r="K9" s="15">
+        <v>25</v>
+      </c>
+      <c r="L9" s="15">
+        <v>225</v>
+      </c>
+      <c r="M9" s="15">
+        <v>10</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B10" s="11">
+        <v>7</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="12">
+        <v>42345</v>
+      </c>
+      <c r="E10" s="12">
+        <v>42579</v>
+      </c>
+      <c r="F10" s="11">
+        <v>8</v>
+      </c>
+      <c r="G10" s="13">
+        <v>5</v>
+      </c>
+      <c r="H10" s="14">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+      <c r="I10" s="15">
+        <v>15</v>
+      </c>
+      <c r="J10" s="15">
+        <v>75</v>
+      </c>
+      <c r="K10" s="15">
+        <v>30</v>
+      </c>
+      <c r="L10" s="15">
+        <v>175</v>
+      </c>
+      <c r="M10" s="15">
+        <v>20</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="E12" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="20">
+        <f>SUM(G4:G11)</f>
+        <v>40</v>
+      </c>
+      <c r="H12" s="21">
+        <f>SUM(H4:H11)</f>
+        <v>4515</v>
+      </c>
+      <c r="I12" s="7">
+        <f>SUM(I4:I11)</f>
+        <v>80</v>
+      </c>
+      <c r="J12" s="7">
+        <f>SUM(J4:J11)</f>
+        <v>465</v>
+      </c>
+      <c r="K12" s="7">
+        <f>SUM(K4:K11)</f>
+        <v>3305</v>
+      </c>
+      <c r="L12" s="7">
+        <f>SUM(L4:L11)</f>
+        <v>570</v>
+      </c>
+      <c r="M12" s="7">
+        <f>SUM(M4:M11)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="E13" s="25"/>
+      <c r="F13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="5">
+        <v>36</v>
+      </c>
+      <c r="H13" s="6">
+        <v>4500</v>
+      </c>
+      <c r="I13" s="8">
+        <f>I12/H12</f>
+        <v>1.7718715393133997E-2</v>
+      </c>
+      <c r="J13" s="8">
+        <f>J12/H12</f>
+        <v>0.10299003322259136</v>
+      </c>
+      <c r="K13" s="8">
+        <f>K12/H12</f>
+        <v>0.73200442967884827</v>
+      </c>
+      <c r="L13" s="8">
+        <f>L12/H12</f>
+        <v>0.12624584717607973</v>
+      </c>
+      <c r="M13" s="8">
+        <f>M12/H12</f>
+        <v>2.1040974529346623E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,468 +1123,468 @@
     <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="134.7109375" style="23" customWidth="1"/>
+    <col min="14" max="14" width="134.7109375" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3" t="s">
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:14" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="2:14" s="14" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15">
+      <c r="N3" s="24"/>
+    </row>
+    <row r="4" spans="2:14" s="10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="12">
         <v>39829</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="12">
         <v>40024</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="11">
         <v>7</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="13">
         <v>7</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="14">
         <f>SUM(I4:M4)</f>
         <v>1083</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="15">
         <v>4</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="15">
         <v>40</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="15">
         <v>1039</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="15">
         <v>0</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="15">
         <v>0</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:14" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="B5" s="15">
+    <row r="5" spans="2:14" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B5" s="11">
         <v>2</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="12">
         <v>40567</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="12">
         <v>40715</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="11">
         <v>5</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="13">
         <v>5</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="14">
         <f t="shared" ref="H5:H11" si="0">SUM(I5:M5)</f>
         <v>758</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="15">
         <v>9</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="15">
         <v>22</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="15">
         <v>710</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="15">
         <v>4</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="15">
         <v>13</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:14" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="15">
+    <row r="6" spans="2:14" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="11">
         <v>3</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="12">
         <v>40779</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="12">
         <v>40952</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="11">
         <v>6</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="13">
         <v>6</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="14">
         <f t="shared" si="0"/>
         <v>989</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="16">
         <v>0</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="16">
         <v>156</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="16">
         <v>793</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="16">
         <v>16</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="16">
         <v>24</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:14" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B7" s="15">
+    <row r="7" spans="2:14" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B7" s="11">
         <v>4</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="12">
         <v>41349</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="12">
         <v>41443</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="11">
         <v>3</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="13">
         <v>2</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="14">
         <f t="shared" si="0"/>
         <v>636</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="15">
         <v>6</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="15">
         <v>42</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="15">
         <v>568</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="15">
         <v>12</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M7" s="15">
         <v>8</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="N7" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:14" s="14" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="15">
+    <row r="8" spans="2:14" s="10" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="11">
         <v>5</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="12">
         <v>41414</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="12">
         <v>41687</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="11">
         <v>9</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="13">
         <v>9</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="14">
         <f t="shared" si="0"/>
         <v>313</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="15">
         <v>23</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="15">
         <v>67</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="15">
         <v>79</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="15">
         <v>130</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M8" s="15">
         <v>14</v>
       </c>
-      <c r="N8" s="13" t="s">
+      <c r="N8" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:14" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="15">
+    <row r="9" spans="2:14" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B9" s="11">
         <v>6</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="12">
         <v>41639</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="12">
         <v>41883</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="11">
         <v>8</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="13">
         <v>6</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="14">
         <f t="shared" si="0"/>
         <v>257</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="15">
         <v>12</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="15">
         <v>46</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="15">
         <v>12</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="15">
         <v>179</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M9" s="15">
         <v>8</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="N9" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:14" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="15">
+    <row r="10" spans="2:14" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B10" s="11">
         <v>7</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="12">
         <v>42345</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="12">
         <v>42579</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="11">
         <v>8</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="13">
         <v>5</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="14">
         <f t="shared" si="0"/>
         <v>304</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="15">
         <v>24</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="15">
         <v>88</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="15">
         <v>28</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="15">
         <v>148</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M10" s="15">
         <v>16</v>
       </c>
-      <c r="N10" s="26" t="s">
+      <c r="N10" s="22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:14" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B11" s="15">
+    <row r="11" spans="2:14" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B11" s="11">
         <v>8</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="12">
         <v>42804</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="12">
         <v>42975</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="11">
         <v>6</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="13">
         <v>6</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="14">
         <f t="shared" si="0"/>
         <v>180.5</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="15">
         <v>12</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="15">
         <v>23</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="15">
         <v>16.5</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="15">
         <v>129</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M11" s="15">
         <v>0</v>
       </c>
-      <c r="N11" s="26" t="s">
+      <c r="N11" s="22" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="20">
         <f>SUM(G4:G12)</f>
         <v>46</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="21">
         <f>SUM(H4:H12)</f>
         <v>4520.5</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="7">
         <f t="shared" ref="I13:M13" si="1">SUM(I4:I12)</f>
         <v>90</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="7">
         <f t="shared" si="1"/>
         <v>484</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="7">
         <f t="shared" si="1"/>
         <v>3245.5</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="7">
         <f t="shared" si="1"/>
         <v>618</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="7">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="E14" s="7"/>
-      <c r="F14" s="8" t="s">
+      <c r="E14" s="25"/>
+      <c r="F14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="5">
         <v>36</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="6">
         <v>4500</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="8">
         <f>I13/H13</f>
         <v>1.990930206835527E-2</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="8">
         <f>J13/H13</f>
         <v>0.10706780223426612</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="8">
         <f>K13/H13</f>
         <v>0.71795155403163369</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="8">
         <f>L13/H13</f>
         <v>0.13671054086937287</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="8">
         <f>M13/H13</f>
         <v>1.8360800796372083E-2</v>
       </c>
